--- a/biology/Zoologie/Comatula/Comatula.xlsx
+++ b/biology/Zoologie/Comatula/Comatula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Comatula est un genre de crinoïde de la famille des Comasteridae (ordre des Comatulida).
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bouche est en position centrale, y compris à l'âge adulte. Ces espèces ont généralement 10 bras (parfois jusqu'à 17 chez C. pectinata et exceptionnellement 27 chez C. rotalaria). Le centrodorsal est pentagonal à circulaire, fin, parfois réduit. Les cirrhes sont clairsemés ou absents. Les pinnules orales portent une rangée de petites dents prononcées[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bouche est en position centrale, y compris à l'âge adulte. Ces espèces ont généralement 10 bras (parfois jusqu'à 17 chez C. pectinata et exceptionnellement 27 chez C. rotalaria). Le centrodorsal est pentagonal à circulaire, fin, parfois réduit. Les cirrhes sont clairsemés ou absents. Les pinnules orales portent une rangée de petites dents prononcées. 
 			Tegmen et pinnules orales de Comatula pectinata
 			Centrodorsal de Comatula pectinata, montrant les cirrhes et les syzygyes.
 </t>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (8 avril 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (8 avril 2015) :
 sous-genre Comatula (Comatula) Lamarck, 1816
 Comatula cratera HL Clark, 1916 -- Australie
 Comatula micraster AH Clark, 1909 -- Mer d'Andaman et Indonésie
